--- a/Data/2018_PITCH.xlsx
+++ b/Data/2018_PITCH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensa\Documents\Side Projects\MLB_Win_Projections\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensa\Documents\GitHub\MLB_Win_Projections\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1112ED76-7E49-427F-9E09-E28D7EBB4D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E01C04-DC02-43AF-8222-57B993DD1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="52680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018_p" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Team</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>HR/FB</t>
-  </si>
-  <si>
-    <t>EV</t>
   </si>
   <si>
     <t>ERA</t>
@@ -172,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,14 +1004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,13 +1068,10 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
       </c>
       <c r="B2">
         <v>103</v>
@@ -1117,24 +1113,21 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="O2">
-        <v>87.8</v>
+        <v>3.11</v>
       </c>
       <c r="P2">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="Q2">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="R2">
-        <v>3.36</v>
-      </c>
-      <c r="S2">
         <v>28.6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1176,24 +1169,21 @@
         <v>0.129</v>
       </c>
       <c r="O3">
-        <v>87.9</v>
+        <v>3.78</v>
       </c>
       <c r="P3">
-        <v>3.78</v>
+        <v>3.63</v>
       </c>
       <c r="Q3">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="R3">
-        <v>3.61</v>
-      </c>
-      <c r="S3">
         <v>24.4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>91</v>
@@ -1235,24 +1225,21 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="O4">
-        <v>88.3</v>
+        <v>3.77</v>
       </c>
       <c r="P4">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="Q4">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="R4">
-        <v>3.66</v>
-      </c>
-      <c r="S4">
         <v>21.9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -1294,24 +1281,21 @@
         <v>0.124</v>
       </c>
       <c r="O5">
-        <v>88</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="P5">
-        <v>4.1500000000000004</v>
+        <v>3.83</v>
       </c>
       <c r="Q5">
-        <v>3.83</v>
+        <v>3.87</v>
       </c>
       <c r="R5">
-        <v>3.87</v>
-      </c>
-      <c r="S5">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -1353,24 +1337,21 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="O6">
-        <v>87.6</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="R6">
-        <v>3.52</v>
-      </c>
-      <c r="S6">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>108</v>
@@ -1412,24 +1393,21 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O7">
-        <v>88.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q7">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="R7">
-        <v>3.92</v>
-      </c>
-      <c r="S7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>77</v>
@@ -1471,24 +1449,21 @@
         <v>0.122</v>
       </c>
       <c r="O8">
-        <v>87.7</v>
+        <v>4.07</v>
       </c>
       <c r="P8">
-        <v>4.07</v>
+        <v>3.97</v>
       </c>
       <c r="Q8">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="R8">
-        <v>4.03</v>
-      </c>
-      <c r="S8">
         <v>17.8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>90</v>
@@ -1530,24 +1505,21 @@
         <v>0.115</v>
       </c>
       <c r="O9">
-        <v>88.3</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q9">
-        <v>3.82</v>
+        <v>3.98</v>
       </c>
       <c r="R9">
-        <v>3.98</v>
-      </c>
-      <c r="S9">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>91</v>
@@ -1589,24 +1561,21 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="O10">
-        <v>88.5</v>
+        <v>4.33</v>
       </c>
       <c r="P10">
-        <v>4.33</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="Q10">
-        <v>4.0599999999999996</v>
+        <v>3.96</v>
       </c>
       <c r="R10">
-        <v>3.96</v>
-      </c>
-      <c r="S10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>89</v>
@@ -1648,24 +1617,21 @@
         <v>0.127</v>
       </c>
       <c r="O11">
-        <v>88.8</v>
+        <v>4.13</v>
       </c>
       <c r="P11">
-        <v>4.13</v>
+        <v>4.05</v>
       </c>
       <c r="Q11">
-        <v>4.05</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="R11">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="S11">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>82</v>
@@ -1707,24 +1673,21 @@
         <v>0.128</v>
       </c>
       <c r="O12">
-        <v>87.9</v>
+        <v>4.04</v>
       </c>
       <c r="P12">
-        <v>4.04</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Q12">
-        <v>4.1500000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="R12">
-        <v>4.13</v>
-      </c>
-      <c r="S12">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>90</v>
@@ -1766,24 +1729,21 @@
         <v>0.112</v>
       </c>
       <c r="O13">
-        <v>88.2</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="Q13">
-        <v>3.99</v>
+        <v>4.17</v>
       </c>
       <c r="R13">
-        <v>4.17</v>
-      </c>
-      <c r="S13">
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>82</v>
@@ -1825,24 +1785,21 @@
         <v>0.121</v>
       </c>
       <c r="O14">
-        <v>88.8</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="Q14">
-        <v>4.0599999999999996</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="R14">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="S14">
         <v>14.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>96</v>
@@ -1884,24 +1841,21 @@
         <v>0.125</v>
       </c>
       <c r="O15">
-        <v>88.1</v>
+        <v>3.73</v>
       </c>
       <c r="P15">
-        <v>3.73</v>
+        <v>4.01</v>
       </c>
       <c r="Q15">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="R15">
-        <v>4.04</v>
-      </c>
-      <c r="S15">
         <v>14.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>88</v>
@@ -1943,24 +1897,21 @@
         <v>0.105</v>
       </c>
       <c r="O16">
-        <v>87.6</v>
+        <v>3.85</v>
       </c>
       <c r="P16">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="Q16">
-        <v>3.97</v>
+        <v>4.24</v>
       </c>
       <c r="R16">
-        <v>4.24</v>
-      </c>
-      <c r="S16">
         <v>14.4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>95</v>
@@ -2002,24 +1953,21 @@
         <v>0.115</v>
       </c>
       <c r="O17">
-        <v>88.2</v>
+        <v>3.65</v>
       </c>
       <c r="P17">
-        <v>3.65</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q17">
-        <v>4.1399999999999997</v>
+        <v>4.29</v>
       </c>
       <c r="R17">
-        <v>4.29</v>
-      </c>
-      <c r="S17">
         <v>14.1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>73</v>
@@ -2061,24 +2009,21 @@
         <v>0.11</v>
       </c>
       <c r="O18">
-        <v>88.6</v>
+        <v>3.95</v>
       </c>
       <c r="P18">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="Q18">
-        <v>3.98</v>
+        <v>4.2</v>
       </c>
       <c r="R18">
-        <v>4.2</v>
-      </c>
-      <c r="S18">
         <v>14.1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>97</v>
@@ -2120,24 +2065,21 @@
         <v>0.122</v>
       </c>
       <c r="O19">
-        <v>88.3</v>
+        <v>3.82</v>
       </c>
       <c r="P19">
-        <v>3.82</v>
+        <v>4.18</v>
       </c>
       <c r="Q19">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="R19">
-        <v>4.25</v>
-      </c>
-      <c r="S19">
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>82</v>
@@ -2179,24 +2121,21 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="O20">
-        <v>89.2</v>
+        <v>3.73</v>
       </c>
       <c r="P20">
-        <v>3.73</v>
+        <v>3.91</v>
       </c>
       <c r="Q20">
-        <v>3.91</v>
+        <v>3.81</v>
       </c>
       <c r="R20">
-        <v>3.81</v>
-      </c>
-      <c r="S20">
         <v>13.2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>66</v>
@@ -2238,24 +2177,21 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O21">
-        <v>88.6</v>
+        <v>4.41</v>
       </c>
       <c r="P21">
-        <v>4.41</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q21">
-        <v>4.0999999999999996</v>
+        <v>3.99</v>
       </c>
       <c r="R21">
-        <v>3.99</v>
-      </c>
-      <c r="S21">
         <v>12.3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>80</v>
@@ -2297,24 +2233,21 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="O22">
-        <v>89</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="P22">
-        <v>4.1500000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="Q22">
-        <v>4.3600000000000003</v>
+        <v>4.18</v>
       </c>
       <c r="R22">
-        <v>4.18</v>
-      </c>
-      <c r="S22">
         <v>12.1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>78</v>
@@ -2356,24 +2289,21 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O23">
-        <v>88.5</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="Q23">
-        <v>4.3899999999999997</v>
+        <v>4.33</v>
       </c>
       <c r="R23">
-        <v>4.33</v>
-      </c>
-      <c r="S23">
         <v>11.3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>67</v>
@@ -2415,24 +2345,21 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="O24">
-        <v>88.9</v>
+        <v>4.92</v>
       </c>
       <c r="P24">
-        <v>4.92</v>
+        <v>4.79</v>
       </c>
       <c r="Q24">
-        <v>4.79</v>
+        <v>4.59</v>
       </c>
       <c r="R24">
-        <v>4.59</v>
-      </c>
-      <c r="S24">
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>64</v>
@@ -2474,24 +2401,21 @@
         <v>0.129</v>
       </c>
       <c r="O25">
-        <v>88.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P25">
-        <v>4.5999999999999996</v>
+        <v>4.59</v>
       </c>
       <c r="Q25">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="R25">
-        <v>4.55</v>
-      </c>
-      <c r="S25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>62</v>
@@ -2533,24 +2457,21 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="O26">
-        <v>88.6</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P26">
-        <v>4.8499999999999996</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Q26">
-        <v>4.7300000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="R26">
-        <v>4.88</v>
-      </c>
-      <c r="S26">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>73</v>
@@ -2592,24 +2513,21 @@
         <v>0.127</v>
       </c>
       <c r="O27">
-        <v>88.5</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P27">
-        <v>4.8499999999999996</v>
+        <v>4.53</v>
       </c>
       <c r="Q27">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="R27">
-        <v>4.54</v>
-      </c>
-      <c r="S27">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>67</v>
@@ -2651,24 +2569,21 @@
         <v>0.158</v>
       </c>
       <c r="O28">
-        <v>88.8</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="P28">
-        <v>4.6500000000000004</v>
+        <v>4.68</v>
       </c>
       <c r="Q28">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="R28">
-        <v>4.28</v>
-      </c>
-      <c r="S28">
         <v>8.6</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>47</v>
@@ -2710,24 +2625,21 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="O29">
-        <v>88.6</v>
+        <v>5.19</v>
       </c>
       <c r="P29">
-        <v>5.19</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="Q29">
-        <v>4.9800000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="R29">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="S29">
         <v>7.1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>58</v>
@@ -2769,24 +2681,21 @@
         <v>0.13</v>
       </c>
       <c r="O30">
-        <v>89.2</v>
+        <v>4.95</v>
       </c>
       <c r="P30">
-        <v>4.95</v>
+        <v>4.66</v>
       </c>
       <c r="Q30">
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
       <c r="R30">
-        <v>4.63</v>
-      </c>
-      <c r="S30">
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>63</v>
@@ -2828,18 +2737,15 @@
         <v>0.121</v>
       </c>
       <c r="O31">
-        <v>88.8</v>
+        <v>4.76</v>
       </c>
       <c r="P31">
-        <v>4.76</v>
+        <v>4.57</v>
       </c>
       <c r="Q31">
-        <v>4.57</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="R31">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="S31">
         <v>2.2999999999999998</v>
       </c>
     </row>
